--- a/medicine/Sexualité et sexologie/Prostitution_en_Algérie/Prostitution_en_Algérie.xlsx
+++ b/medicine/Sexualité et sexologie/Prostitution_en_Algérie/Prostitution_en_Algérie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prostitution_en_Alg%C3%A9rie</t>
+          <t>Prostitution_en_Algérie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La prostitution en Algérie est illégale en vertu de l'article 343 (ordonnance du 17 juin 1975) du Code pénal algérien[1]. Cet article interdit aussi la consommation d'un service de prostitution, le proxénétisme, la vie commune avec une prostituée, le racolage et forcer autrui à la prostitution.
-Selon l'Office français de protection des réfugiés et apatrides, jusqu'en 2011, il existait 19 maisons closes sous contrôle de la police sur les 171 qui étaient autrefois présentes sur le territoire algérien pendant la période coloniale française en Algérie[2], comme notamment en Tunisie.
-Malgré l'interdiction de jure par le Code pénal algérien, la prostitution clandestine est présente dans la société algérienne contemporaine[3]. Les hommes sont aussi présents dans la prostitution homosexuelle et hétérosexuelle[4].
+La prostitution en Algérie est illégale en vertu de l'article 343 (ordonnance du 17 juin 1975) du Code pénal algérien. Cet article interdit aussi la consommation d'un service de prostitution, le proxénétisme, la vie commune avec une prostituée, le racolage et forcer autrui à la prostitution.
+Selon l'Office français de protection des réfugiés et apatrides, jusqu'en 2011, il existait 19 maisons closes sous contrôle de la police sur les 171 qui étaient autrefois présentes sur le territoire algérien pendant la période coloniale française en Algérie, comme notamment en Tunisie.
+Malgré l'interdiction de jure par le Code pénal algérien, la prostitution clandestine est présente dans la société algérienne contemporaine. Les hommes sont aussi présents dans la prostitution homosexuelle et hétérosexuelle.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prostitution_en_Alg%C3%A9rie</t>
+          <t>Prostitution_en_Algérie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,13 +528,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période ottomane
-Durant la régence d'Alger (1516-1830), la prostitution est tolérée et régulée[5]. Avant la colonisation française de l'Algérie en 1830, on estime qu'il y avait 300 et 500 prostituées à Alger. Les femmes étaient Maures, Arabes et Noires. Il n'était pas permis aux Juives de devenir prostituées[6].
-Un mezouar était chargé de la régulation de la prostitution. Cette personnalité officielle était toujours un Maure. Cette place était lucrative car il collectait un tribut mensuel auprès de chaque prostituée. Il gardait un registre des prostituées et les femmes n'étaient pas autorisées à quitter les bordels et les bains publics dans lesquels elles travaillaient[6].
-Notons que par ailleurs la polygamie[7],[8] ainsi que le concubinage (avec la plupart du temps des esclaves)[9],[10] étaient des pratiques légales.
-Période coloniale
-Sous l'administration française, la prostitution légalisée commence à se mettre en place, non sans se heurter à de nombreux murs culturels et religieux (les femmes ne quittant presque pas les maisons)[11].
-Les bordels militaires et maisons de tolérances alors mis en place par Alexandre Parent-Duchâtelet choquent les populations locales. Dans le Maghreb colonial, dans les villes européennes, les activités prostitutionnelles vont être disséminées et invisibilisées et, dans les quartiers « indigènes », sont concentrées[11].
+          <t>Période ottomane</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant la régence d'Alger (1516-1830), la prostitution est tolérée et régulée. Avant la colonisation française de l'Algérie en 1830, on estime qu'il y avait 300 et 500 prostituées à Alger. Les femmes étaient Maures, Arabes et Noires. Il n'était pas permis aux Juives de devenir prostituées.
+Un mezouar était chargé de la régulation de la prostitution. Cette personnalité officielle était toujours un Maure. Cette place était lucrative car il collectait un tribut mensuel auprès de chaque prostituée. Il gardait un registre des prostituées et les femmes n'étaient pas autorisées à quitter les bordels et les bains publics dans lesquels elles travaillaient.
+Notons que par ailleurs la polygamie, ainsi que le concubinage (avec la plupart du temps des esclaves), étaient des pratiques légales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Prostitution_en_Algérie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prostitution_en_Alg%C3%A9rie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Période coloniale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous l'administration française, la prostitution légalisée commence à se mettre en place, non sans se heurter à de nombreux murs culturels et religieux (les femmes ne quittant presque pas les maisons).
+Les bordels militaires et maisons de tolérances alors mis en place par Alexandre Parent-Duchâtelet choquent les populations locales. Dans le Maghreb colonial, dans les villes européennes, les activités prostitutionnelles vont être disséminées et invisibilisées et, dans les quartiers « indigènes », sont concentrées.
 </t>
         </is>
       </c>
